--- a/Administrative/Tasks/Tasks.xlsx
+++ b/Administrative/Tasks/Tasks.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="118">
   <si>
     <t>APPLICATIONS</t>
   </si>
@@ -333,18 +334,81 @@
   </si>
   <si>
     <t>to choose the logo</t>
+  </si>
+  <si>
+    <t>block 1</t>
+  </si>
+  <si>
+    <t>block 2</t>
+  </si>
+  <si>
+    <t>Preparation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website </t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Papers</t>
+  </si>
+  <si>
+    <t>Starting apps</t>
+  </si>
+  <si>
+    <t>Website deployment</t>
+  </si>
+  <si>
+    <t>intermission</t>
+  </si>
+  <si>
+    <t>DB optimisation and integration</t>
+  </si>
+  <si>
+    <t>Apps</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Round off</t>
+  </si>
+  <si>
+    <t>Optimisation</t>
+  </si>
+  <si>
+    <t>Demonstartion prep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -368,8 +432,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,6 +451,862 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$25:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>intermission</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Website deployment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$24:$F$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Website </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Papers</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Starting apps</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="285103464"/>
+        <c:axId val="285104248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="285103464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285104248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="285104248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="285103464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9294395" cy="6075947"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -650,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C10:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,102 +1610,102 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -791,257 +1713,312 @@
       <c r="A7" t="s">
         <v>69</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>88</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C51" t="s">
         <v>99</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D51" t="s">
         <v>100</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F51" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>88</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C52" t="s">
         <v>98</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D52" t="s">
         <v>102</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F52" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>91</v>
       </c>
     </row>

--- a/Administrative/Tasks/Tasks.xlsx
+++ b/Administrative/Tasks/Tasks.xlsx
@@ -468,7 +468,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -578,11 +577,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="285103464"/>
-        <c:axId val="285104248"/>
+        <c:axId val="239310456"/>
+        <c:axId val="239319080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="285103464"/>
+        <c:axId val="239310456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -625,7 +624,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285104248"/>
+        <c:crossAx val="239319080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -633,7 +632,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285104248"/>
+        <c:axId val="239319080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -684,7 +683,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285103464"/>
+        <c:crossAx val="239310456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1574,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C10:C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,7 +1638,7 @@
       <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1699,7 +1698,7 @@
       <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1739,7 +1738,7 @@
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1762,7 +1761,7 @@
       <c r="D9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1776,13 +1775,13 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1796,13 +1795,13 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1816,11 +1815,11 @@
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1831,18 +1830,18 @@
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1850,7 +1849,7 @@
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1858,7 +1857,7 @@
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1866,7 +1865,7 @@
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>65</v>
       </c>
     </row>

--- a/Administrative/Tasks/Tasks.xlsx
+++ b/Administrative/Tasks/Tasks.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -403,7 +402,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -451,861 +449,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$25:$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>intermission</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Website deployment</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$24:$F$24</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Website </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DB</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Papers</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Starting apps</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$25:$F$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="239310456"/>
-        <c:axId val="239319080"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="239310456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="239319080"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="239319080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="239310456"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9294395" cy="6075947"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1574,7 +717,7 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,19 +735,19 @@
       <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1624,7 +767,7 @@
       <c r="E2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1644,7 +787,7 @@
       <c r="E3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1664,7 +807,7 @@
       <c r="E4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1684,7 +827,7 @@
       <c r="E5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1704,7 +847,7 @@
       <c r="E6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1718,13 +861,13 @@
       <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1744,7 +887,7 @@
       <c r="E8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1758,13 +901,13 @@
       <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1778,13 +921,13 @@
       <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1798,13 +941,13 @@
       <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1818,21 +961,25 @@
       <c r="C12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1841,51 +988,63 @@
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
     </row>
